--- a/templates/Excel_files/01_batch_makeblastdb_template.xlsx
+++ b/templates/Excel_files/01_batch_makeblastdb_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dmail-my.sharepoint.com/personal/ebutterfield_dundee_ac_uk/Documents/My files/Bioinformatics/batch_brb/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dmail-my.sharepoint.com/personal/ebutterfield_dundee_ac_uk/Documents/My files/Bioinformatics/batch_brb/templates/Excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{1079BE96-52F5-3D45-A8C2-8501132B92CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{35FA4FB9-AAB7-3742-A128-93468DE566DE}"/>
@@ -409,7 +409,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
